--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -46,43 +46,61 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>selfish</t>
@@ -94,46 +112,31 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>shortage</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>lower</t>
   </si>
   <si>
     <t>demand</t>
@@ -142,199 +145,205 @@
     <t>outbreak</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>better</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>advice</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>customers</t>
+    <t>home</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>today</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>stock</t>
@@ -343,52 +352,43 @@
     <t>delivery</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>via</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>toilet</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>prices</t>
@@ -749,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -868,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -918,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -968,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7397260273972602</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C7">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.72</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.8166666666666667</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6333333333333333</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1318,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.631578947368421</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6129032258064516</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4838709677419355</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.7452830188679245</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4722222222222222</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4594594594594595</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L19">
         <v>20</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19">
-        <v>0.7</v>
-      </c>
-      <c r="L19">
-        <v>35</v>
-      </c>
       <c r="M19">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4533333333333333</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.437984496124031</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C21">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,37 +1768,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.436241610738255</v>
+        <v>0.4573643410852713</v>
       </c>
       <c r="C22">
+        <v>236</v>
+      </c>
+      <c r="D22">
+        <v>236</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>280</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
-        <v>65</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>84</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K22">
-        <v>0.6736292428198434</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L22">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M22">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,49 +1818,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4358974358974359</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>17</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L23">
-        <v>18</v>
-      </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4324324324324325</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.6511627906976745</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4313725490196079</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.6363636363636364</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,10 +1971,10 @@
         <v>0.4</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.6071428571428571</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3728813559322034</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.5970588235294118</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L28">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C29">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.5830508474576271</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3333333333333333</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.5730337078651685</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3116883116883117</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K31">
         <v>0.5555555555555556</v>
@@ -2268,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.288135593220339</v>
+        <v>0.2875</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.5483870967741935</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2318,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.5416666666666666</v>
+        <v>0.55</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2375</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.5313807531380753</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L34">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2418,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1367292225201072</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2436,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.5256410256410257</v>
+        <v>0.54</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,28 +2468,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.09696969696969697</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E36">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>0.525</v>
@@ -2518,37 +2518,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008698561391769822</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2963</v>
+        <v>150</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.4888888888888889</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2568,37 +2568,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005754475703324808</v>
+        <v>0.008341353865896696</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3110</v>
+        <v>3091</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.4520547945205479</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2610,21 +2610,45 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.006369426751592357</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>143</v>
+      </c>
+      <c r="E39">
+        <v>0.87</v>
+      </c>
+      <c r="F39">
+        <v>0.13</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2964</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>0.4428571428571428</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2636,21 +2660,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>0.4411764705882353</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2662,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>0.375</v>
+        <v>0.453125</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2688,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.3571428571428572</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2714,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.3442622950819672</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2740,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.34375</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2766,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.3194444444444444</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2792,21 +2816,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.2372881355932203</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2818,47 +2842,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.2307692307692308</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.2203389830508475</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2870,47 +2894,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49">
-        <v>0.189873417721519</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>128</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50">
-        <v>0.1875</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L50">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2922,73 +2946,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>338</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>0.1770334928229665</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="L51">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M51">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>0.1732283464566929</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>105</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K53">
-        <v>0.1578947368421053</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3000,47 +3024,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K54">
-        <v>0.15625</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L54">
         <v>15</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>0.1485148514851485</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3052,151 +3076,151 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K56">
-        <v>0.147239263803681</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K57">
-        <v>0.1458333333333333</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K58">
-        <v>0.1348837209302326</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L58">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>186</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K59">
-        <v>0.134020618556701</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>84</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K60">
-        <v>0.121923937360179</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L60">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>785</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K61">
-        <v>0.1212121212121212</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3208,73 +3232,73 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K62">
-        <v>0.1168224299065421</v>
+        <v>0.1152125279642058</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>189</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K63">
-        <v>0.1136363636363636</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="L63">
         <v>15</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K64">
-        <v>0.1130434782608696</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3286,47 +3310,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K65">
-        <v>0.1049382716049383</v>
+        <v>0.1054384017758047</v>
       </c>
       <c r="L65">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="M65">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N65">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>290</v>
+        <v>806</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K66">
-        <v>0.1021897810218978</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3338,47 +3362,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K67">
-        <v>0.09941520467836257</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>154</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K68">
-        <v>0.09465020576131687</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L68">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3390,82 +3414,82 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>440</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K69">
-        <v>0.08950617283950617</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="L69">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>590</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K70">
-        <v>0.08777777777777777</v>
+        <v>0.09415584415584416</v>
       </c>
       <c r="L70">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>821</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K71">
-        <v>0.08614232209737828</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M71">
         <v>23</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>244</v>
@@ -3473,16 +3497,16 @@
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K72">
-        <v>0.08441558441558442</v>
+        <v>0.08073817762399077</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="M72">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3494,30 +3518,30 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>282</v>
+        <v>797</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K73">
-        <v>0.08260869565217391</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M73">
         <v>19</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>211</v>
@@ -3525,42 +3549,42 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K74">
-        <v>0.08227848101265822</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="N74">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>145</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K75">
-        <v>0.07266760431317393</v>
+        <v>0.07109737248840804</v>
       </c>
       <c r="L75">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="M75">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="N75">
         <v>0.9399999999999999</v>
@@ -3572,47 +3596,47 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1978</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K76">
-        <v>0.07159353348729793</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L76">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>804</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K77">
-        <v>0.05508474576271186</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M77">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>0.93</v>
@@ -3624,215 +3648,189 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K78">
-        <v>0.04310344827586207</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N78">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O78">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K79">
-        <v>0.04189944134078212</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N79">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="O79">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>343</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>0.03886925795053003</v>
+        <v>0.04015544041450777</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="N80">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="O80">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>544</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="K81">
-        <v>0.0382992534891269</v>
+        <v>0.03552397868561279</v>
       </c>
       <c r="L81">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="N81">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O81">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>2963</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K82">
-        <v>0.03742203742203742</v>
+        <v>0.03329864724245578</v>
       </c>
       <c r="L82">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M82">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N82">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="O82">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>0.02968460111317254</v>
+        <v>0.02645669291338583</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="M83">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="N83">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="O83">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>523</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="K84">
-        <v>0.02293433867420672</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L84">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="M84">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N84">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="O84">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K85">
-        <v>0.02079722703639515</v>
-      </c>
-      <c r="L85">
-        <v>24</v>
-      </c>
-      <c r="M85">
-        <v>31</v>
-      </c>
-      <c r="N85">
-        <v>0.77</v>
-      </c>
-      <c r="O85">
-        <v>0.23</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,108 +43,129 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
@@ -154,241 +175,280 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>please</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>advice</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>available</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>today</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>via</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>go</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -749,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -860,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -868,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -918,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.8787878787878788</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -968,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1010,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,13 +1078,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7465753424657534</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8658536585365854</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,16 +1149,16 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1178,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6538461538461539</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.825</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1318,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6486486486486487</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1360,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1368,13 +1428,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5806451612903226</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,13 +1578,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5806451612903226</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1560,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1628,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1678,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1728,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.6914893617021277</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1710,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,13 +1778,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4697986577181208</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4573643410852713</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C22">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.6475195822454308</v>
+        <v>0.725</v>
       </c>
       <c r="L22">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="M22">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1878,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4509803921568628</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1836,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1860,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4444444444444444</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1910,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4324324324324325</v>
+        <v>0.4554263565891473</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.6058823529411764</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +2028,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.5842696629213483</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2010,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3898305084745763</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.5813953488372093</v>
+        <v>0.6657963446475196</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2128,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3756613756613756</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C28">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.5757575757575758</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2178,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3272727272727273</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2160,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,13 +2228,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3116883116883117</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2186,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.5588235294117647</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2210,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3050847457627119</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2260,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2268,13 +2328,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2875</v>
+        <v>0.375</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.5525423728813559</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2318,13 +2378,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.25</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C33">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.55</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2360,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2444444444444444</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.5416666666666666</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2410,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2418,13 +2478,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2321428571428572</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2436,19 +2496,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.54</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2460,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,37 +2528,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1827956989247312</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C36">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.525</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2510,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2518,13 +2578,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0963855421686747</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2536,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.5230125523012552</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L37">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="M37">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2560,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2568,37 +2628,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008341353865896696</v>
+        <v>0.2875</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3091</v>
+        <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.5142857142857142</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2610,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2618,135 +2678,231 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006369426751592357</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2964</v>
+        <v>40</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K39">
+        <v>0.515625</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="C40">
+        <v>66</v>
+      </c>
+      <c r="D40">
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>186</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>68</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.1420911528150134</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>53</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>320</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42">
         <v>0.4931506849315068</v>
       </c>
-      <c r="L39">
+      <c r="L42">
         <v>36</v>
       </c>
-      <c r="M39">
+      <c r="M42">
         <v>36</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="L40">
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <v>22</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.453125</v>
-      </c>
-      <c r="L41">
-        <v>29</v>
-      </c>
-      <c r="M41">
-        <v>29</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="L42">
-        <v>32</v>
-      </c>
-      <c r="M42">
-        <v>32</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>46</v>
-      </c>
-    </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.0783132530120482</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>153</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.4047619047619048</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L43">
         <v>17</v>
@@ -2764,21 +2920,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.009654471544715448</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>194</v>
+      </c>
+      <c r="E44">
+        <v>0.9</v>
+      </c>
+      <c r="F44">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1949</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.4</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2790,21 +2970,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.006772009029345372</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>121</v>
+      </c>
+      <c r="E45">
+        <v>0.83</v>
+      </c>
+      <c r="F45">
+        <v>0.17</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3080</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.3513513513513514</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2816,47 +3020,71 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.005778382053025153</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>182</v>
+      </c>
+      <c r="E46">
+        <v>0.91</v>
+      </c>
+      <c r="F46">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2925</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.3442622950819672</v>
+        <v>0.475</v>
       </c>
       <c r="L46">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>21</v>
-      </c>
-      <c r="M46">
-        <v>21</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.3194444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2868,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.2711864406779661</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2894,21 +3122,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.2280701754385965</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2920,21 +3148,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.2203389830508475</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2946,73 +3174,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.2014388489208633</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L51">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>333</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.1686746987951807</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L52">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>345</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.1653543307086614</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3024,21 +3252,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.1578947368421053</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3050,21 +3278,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.1509433962264151</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3076,47 +3304,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>135</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.1355140186915888</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>185</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.134020618556701</v>
+        <v>0.2</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3128,47 +3356,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.1307692307692308</v>
+        <v>0.1813953488372093</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>113</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K59">
-        <v>0.1302325581395349</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3180,21 +3408,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>187</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K60">
-        <v>0.1296296296296296</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N60">
         <v>0.95</v>
@@ -3206,99 +3434,99 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K61">
-        <v>0.1292517006802721</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>0.1152125279642058</v>
+        <v>0.17</v>
       </c>
       <c r="L62">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>791</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63">
+        <v>0.1653543307086614</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>21</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>106</v>
-      </c>
-      <c r="K63">
-        <v>0.112781954887218</v>
-      </c>
-      <c r="L63">
-        <v>15</v>
-      </c>
-      <c r="M63">
-        <v>15</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>118</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>0.1090909090909091</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3310,21 +3538,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>0.1054384017758047</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L65">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="M65">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3336,21 +3564,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>806</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K66">
-        <v>0.1046511627906977</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3362,47 +3590,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>154</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K67">
-        <v>0.1042944785276074</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>292</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K68">
-        <v>0.1021897810218978</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3414,423 +3642,787 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K69">
-        <v>0.1012658227848101</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K70">
-        <v>0.09415584415584416</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>279</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K71">
-        <v>0.08270676691729323</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>244</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K72">
-        <v>0.08073817762399077</v>
+        <v>0.1196319018404908</v>
       </c>
       <c r="L72">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>797</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K73">
-        <v>0.07860262008733625</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L73">
         <v>18</v>
       </c>
       <c r="M73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>211</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K74">
-        <v>0.07692307692307693</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L74">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1968</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K75">
-        <v>0.07109737248840804</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="L75">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>601</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K76">
-        <v>0.06185567010309279</v>
+        <v>0.1017897091722595</v>
       </c>
       <c r="L76">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="M76">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="N76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>455</v>
+        <v>803</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K77">
-        <v>0.05932203389830509</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L77">
         <v>14</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>222</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K78">
-        <v>0.05027932960893855</v>
+        <v>0.09877913429522753</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="M78">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="N78">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>340</v>
+        <v>812</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K79">
-        <v>0.04081632653061224</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N79">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="O79">
-        <v>0.21</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>517</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="K80">
-        <v>0.04015544041450777</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="L80">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O80">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2964</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K81">
-        <v>0.03552397868561279</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N81">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="O81">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>543</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K82">
-        <v>0.03329864724245578</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L82">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>929</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="K83">
-        <v>0.02645669291338583</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L83">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M83">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N83">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="O83">
-        <v>0.24</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3091</v>
+        <v>592</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K84">
-        <v>0.01904761904761905</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="L84">
         <v>22</v>
       </c>
       <c r="M84">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N84">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="O84">
-        <v>0.21</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1133</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85">
+        <v>0.08239171374764595</v>
+      </c>
+      <c r="L85">
+        <v>175</v>
+      </c>
+      <c r="M85">
+        <v>194</v>
+      </c>
+      <c r="N85">
+        <v>0.9</v>
+      </c>
+      <c r="O85">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K86">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>15</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K87">
+        <v>0.07818930041152264</v>
+      </c>
+      <c r="L87">
+        <v>38</v>
+      </c>
+      <c r="M87">
+        <v>38</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K88">
+        <v>0.07398843930635839</v>
+      </c>
+      <c r="L88">
+        <v>64</v>
+      </c>
+      <c r="M88">
+        <v>66</v>
+      </c>
+      <c r="N88">
+        <v>0.97</v>
+      </c>
+      <c r="O88">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89">
+        <v>0.05508474576271186</v>
+      </c>
+      <c r="L89">
+        <v>13</v>
+      </c>
+      <c r="M89">
+        <v>14</v>
+      </c>
+      <c r="N89">
+        <v>0.93</v>
+      </c>
+      <c r="O89">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K90">
+        <v>0.05339805825242718</v>
+      </c>
+      <c r="L90">
+        <v>165</v>
+      </c>
+      <c r="M90">
+        <v>182</v>
+      </c>
+      <c r="N90">
+        <v>0.91</v>
+      </c>
+      <c r="O90">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K91">
+        <v>0.0498220640569395</v>
+      </c>
+      <c r="L91">
+        <v>14</v>
+      </c>
+      <c r="M91">
+        <v>14</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K92">
+        <v>0.04697986577181208</v>
+      </c>
+      <c r="L92">
+        <v>14</v>
+      </c>
+      <c r="M92">
+        <v>16</v>
+      </c>
+      <c r="N92">
+        <v>0.88</v>
+      </c>
+      <c r="O92">
+        <v>0.12</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K93">
+        <v>0.04240282685512368</v>
+      </c>
+      <c r="L93">
+        <v>24</v>
+      </c>
+      <c r="M93">
+        <v>25</v>
+      </c>
+      <c r="N93">
+        <v>0.96</v>
+      </c>
+      <c r="O93">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94">
+        <v>0.03910614525139665</v>
+      </c>
+      <c r="L94">
+        <v>14</v>
+      </c>
+      <c r="M94">
+        <v>16</v>
+      </c>
+      <c r="N94">
+        <v>0.88</v>
+      </c>
+      <c r="O94">
+        <v>0.12</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K95">
+        <v>0.03634475597092419</v>
+      </c>
+      <c r="L95">
+        <v>35</v>
+      </c>
+      <c r="M95">
+        <v>40</v>
+      </c>
+      <c r="N95">
+        <v>0.88</v>
+      </c>
+      <c r="O95">
+        <v>0.12</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K96">
+        <v>0.03144654088050314</v>
+      </c>
+      <c r="L96">
+        <v>100</v>
+      </c>
+      <c r="M96">
+        <v>121</v>
+      </c>
+      <c r="N96">
+        <v>0.83</v>
+      </c>
+      <c r="O96">
+        <v>0.17</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K97">
+        <v>0.02968460111317254</v>
+      </c>
+      <c r="L97">
+        <v>16</v>
+      </c>
+      <c r="M97">
+        <v>22</v>
+      </c>
+      <c r="N97">
+        <v>0.73</v>
+      </c>
+      <c r="O97">
+        <v>0.27</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98">
+        <v>0.02510822510822511</v>
+      </c>
+      <c r="L98">
+        <v>29</v>
+      </c>
+      <c r="M98">
+        <v>35</v>
+      </c>
+      <c r="N98">
+        <v>0.83</v>
+      </c>
+      <c r="O98">
+        <v>0.17</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
